--- a/DengueCaseReporting[2012-23].xlsx
+++ b/DengueCaseReporting[2012-23].xlsx
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Dashboards\dengue-situation-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5874C6A-D475-4EAB-86B8-7F9EE4BC6B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDC2CDB-8439-4BC1-9BA0-4DEAF305EDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dengue Cases 2012-2023" sheetId="1" r:id="rId1"/>
     <sheet name="Deaths" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -323,7 +336,7 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -871,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434D647-C904-4EBE-9056-3E9E700EC43C}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1071,7 @@
         <v>9</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
